--- a/project_licenses.xlsx
+++ b/project_licenses.xlsx
@@ -5,15 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chaiyong/IdeasProjects/StackAnalyzer/latest_versions/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Chaiyong/IdeasProjects/StackAnalyzer/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="6840" windowWidth="38400" windowHeight="21140" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$65</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="106">
   <si>
     <t>axion-1.0-M2</t>
   </si>
@@ -336,6 +339,15 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>git</t>
+  </si>
+  <si>
+    <t>svn?</t>
+  </si>
+  <si>
+    <t>svn</t>
   </si>
 </sst>
 </file>
@@ -359,9 +371,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -371,12 +392,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,15 +678,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="67.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
@@ -724,6 +746,9 @@
       <c r="D4" s="1">
         <v>42469</v>
       </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -780,6 +805,9 @@
       <c r="D8" s="1">
         <v>42079</v>
       </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -802,6 +830,9 @@
       <c r="D10" s="1">
         <v>42541</v>
       </c>
+      <c r="E10" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -816,6 +847,9 @@
       <c r="D11" s="1">
         <v>42578</v>
       </c>
+      <c r="E11" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -830,6 +864,9 @@
       <c r="D12" s="1">
         <v>42586</v>
       </c>
+      <c r="E12" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -844,7 +881,10 @@
       <c r="D13" s="1">
         <v>42156</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>101</v>
       </c>
       <c r="G13" t="s">
@@ -943,6 +983,9 @@
       <c r="D19" s="1">
         <v>41868</v>
       </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
       <c r="F19" t="s">
         <v>101</v>
       </c>
@@ -1013,6 +1056,9 @@
       <c r="D24" s="1">
         <v>42545</v>
       </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
       <c r="F24" t="s">
         <v>101</v>
       </c>
@@ -1067,6 +1113,9 @@
       <c r="D27" s="1">
         <v>41832</v>
       </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -1081,6 +1130,9 @@
       <c r="D28" s="1">
         <v>42586</v>
       </c>
+      <c r="E28" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -1163,6 +1215,9 @@
       <c r="D33" s="1">
         <v>42584</v>
       </c>
+      <c r="E33" t="s">
+        <v>103</v>
+      </c>
       <c r="F33" t="s">
         <v>101</v>
       </c>
@@ -1217,6 +1272,9 @@
       <c r="D36" s="1">
         <v>42586</v>
       </c>
+      <c r="E36" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
@@ -1231,6 +1289,9 @@
       <c r="D37" s="1">
         <v>42506</v>
       </c>
+      <c r="E37" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -1245,6 +1306,9 @@
       <c r="D38" s="1">
         <v>42578</v>
       </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -1369,6 +1433,9 @@
       <c r="D46" s="1">
         <v>42541</v>
       </c>
+      <c r="E46" t="s">
+        <v>103</v>
+      </c>
       <c r="F46" t="s">
         <v>101</v>
       </c>
@@ -1389,6 +1456,9 @@
       <c r="D47" s="1">
         <v>42558</v>
       </c>
+      <c r="E47" t="s">
+        <v>105</v>
+      </c>
       <c r="F47" t="s">
         <v>101</v>
       </c>
@@ -1429,6 +1499,9 @@
       <c r="D49" s="1">
         <v>42478</v>
       </c>
+      <c r="E49" t="s">
+        <v>103</v>
+      </c>
       <c r="F49" t="s">
         <v>101</v>
       </c>
@@ -1505,6 +1578,9 @@
       <c r="D54" s="1">
         <v>42498</v>
       </c>
+      <c r="E54" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -1519,6 +1595,9 @@
       <c r="D55" s="1">
         <v>42571</v>
       </c>
+      <c r="E55" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -1641,6 +1720,9 @@
       </c>
       <c r="D64" s="1">
         <v>41389</v>
+      </c>
+      <c r="E64" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
